--- a/13-dars/Книга1.xlsx
+++ b/13-dars/Книга1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Loyihalar\Office-darsliklari\13-dars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\OneDrive\Desktop\Office-darsliklari\13-dars\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11475" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11475"/>
   </bookViews>
   <sheets>
     <sheet name="esliga bir misol" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>№</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>natija</t>
+  </si>
+  <si>
+    <t>ЕСЛИ(B4&gt;C4;"1-son katta";ЕСЛИ(B4&lt;C4;"2-son katta";"sonlar teng"))</t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -194,6 +197,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -329,13 +335,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -364,6 +363,13 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -413,7 +419,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
   <autoFilter ref="A1:D11"/>
   <tableColumns count="4">
     <tableColumn id="1" name="№" dataDxfId="3"/>
@@ -692,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,10 +846,19 @@
         <v>sonlar teng</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:D12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -856,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/13-dars/Книга1.xlsx
+++ b/13-dars/Книга1.xlsx
@@ -699,7 +699,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +735,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="str">
-        <f t="shared" ref="D2:D11" si="0">IF(B2&gt;C2,"1-son katta",IF(B2&lt;C2,"2-son katta","sonlar teng"))</f>
+        <f>IF(B2&gt;C2,"1-son katta",IF(B2&lt;C2,"2-son katta","sonlar teng"))</f>
         <v>sonlar teng</v>
       </c>
     </row>
@@ -749,10 +749,7 @@
       <c r="C3" s="5">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>2-son katta</v>
-      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -764,21 +761,19 @@
       <c r="C4" s="5">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>1-son katta</v>
-      </c>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>sonlar teng</v>
-      </c>
+      <c r="B5" s="7">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -786,10 +781,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>sonlar teng</v>
-      </c>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -797,10 +789,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>sonlar teng</v>
-      </c>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -808,10 +797,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>sonlar teng</v>
-      </c>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -819,10 +805,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>sonlar teng</v>
-      </c>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -830,10 +813,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>sonlar teng</v>
-      </c>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -841,10 +821,7 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>sonlar teng</v>
-      </c>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">

--- a/13-dars/Книга1.xlsx
+++ b/13-dars/Книга1.xlsx
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,7 +749,10 @@
       <c r="C3" s="5">
         <v>12</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="str">
+        <f t="shared" ref="D3:D11" si="0">IF(B3&gt;C3,"1-son katta",IF(B3&lt;C3,"2-son katta","sonlar teng"))</f>
+        <v>2-son katta</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -761,7 +764,10 @@
       <c r="C4" s="5">
         <v>10</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1-son katta</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -773,15 +779,25 @@
       <c r="C5" s="5">
         <v>14</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>1-son katta</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="5">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>2-son katta</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -789,7 +805,10 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>sonlar teng</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -797,7 +816,10 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>sonlar teng</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -805,7 +827,10 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>sonlar teng</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -813,7 +838,10 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>sonlar teng</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -821,7 +849,10 @@
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>sonlar teng</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -849,7 +880,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/13-dars/Книга1.xlsx
+++ b/13-dars/Книга1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11475"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="esliga bir misol" sheetId="1" r:id="rId1"/>
@@ -699,7 +699,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/13-dars/Книга1.xlsx
+++ b/13-dars/Книга1.xlsx
@@ -172,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -198,8 +198,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,18 +857,24 @@
         <v>sonlar teng</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>4</v>
-      </c>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
